--- a/Temp.xlsx
+++ b/Temp.xlsx
@@ -24,15 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="4">
   <si>
-    <t xml:space="preserve">Temparature </t>
+    <t>Date</t>
   </si>
   <si>
-    <t>Humidity</t>
+    <t>Temparature</t>
   </si>
   <si>
-    <t>Output</t>
+    <t xml:space="preserve">Humidity </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Weightage</t>
   </si>
 </sst>
 </file>
@@ -48,15 +51,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -64,12 +73,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,126 +383,3020 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>43101</v>
+      </c>
+      <c r="B2" s="3">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3">
+        <v>80</v>
+      </c>
+      <c r="D2" s="3">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3">
+        <v>80</v>
+      </c>
+      <c r="F2" s="3">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3">
+        <v>80</v>
+      </c>
+      <c r="H2" s="3">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3">
+        <v>80</v>
+      </c>
+      <c r="J2" s="3">
+        <v>20</v>
+      </c>
+      <c r="K2" s="3">
+        <v>80</v>
+      </c>
+      <c r="L2" s="3">
+        <v>20</v>
+      </c>
+      <c r="M2" s="3">
+        <v>80</v>
+      </c>
+      <c r="N2" s="3">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>43102</v>
+      </c>
+      <c r="B3" s="3">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3">
+        <v>81</v>
+      </c>
+      <c r="D3" s="3">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3">
+        <v>81</v>
+      </c>
+      <c r="F3" s="3">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3">
+        <v>81</v>
+      </c>
+      <c r="H3" s="3">
+        <v>21</v>
+      </c>
+      <c r="I3" s="3">
+        <v>81</v>
+      </c>
+      <c r="J3" s="3">
+        <v>21</v>
+      </c>
+      <c r="K3" s="3">
+        <v>81</v>
+      </c>
+      <c r="L3" s="3">
+        <v>21</v>
+      </c>
+      <c r="M3" s="3">
+        <v>81</v>
+      </c>
+      <c r="N3" s="3">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>43103</v>
+      </c>
+      <c r="B4" s="3">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3">
+        <v>82</v>
+      </c>
+      <c r="D4" s="3">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3">
+        <v>82</v>
+      </c>
+      <c r="F4" s="3">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3">
+        <v>82</v>
+      </c>
+      <c r="H4" s="3">
+        <v>22</v>
+      </c>
+      <c r="I4" s="3">
+        <v>82</v>
+      </c>
+      <c r="J4" s="3">
+        <v>22</v>
+      </c>
+      <c r="K4" s="3">
+        <v>82</v>
+      </c>
+      <c r="L4" s="3">
+        <v>22</v>
+      </c>
+      <c r="M4" s="3">
+        <v>82</v>
+      </c>
+      <c r="N4" s="3">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>43104</v>
+      </c>
+      <c r="B5" s="3">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3">
+        <v>83</v>
+      </c>
+      <c r="D5" s="3">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3">
+        <v>83</v>
+      </c>
+      <c r="F5" s="3">
+        <v>23</v>
+      </c>
+      <c r="G5" s="3">
+        <v>83</v>
+      </c>
+      <c r="H5" s="3">
+        <v>23</v>
+      </c>
+      <c r="I5" s="3">
+        <v>83</v>
+      </c>
+      <c r="J5" s="3">
+        <v>23</v>
+      </c>
+      <c r="K5" s="3">
+        <v>83</v>
+      </c>
+      <c r="L5" s="3">
+        <v>23</v>
+      </c>
+      <c r="M5" s="3">
+        <v>83</v>
+      </c>
+      <c r="N5" s="3">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>43105</v>
+      </c>
+      <c r="B6" s="3">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3">
+        <v>84</v>
+      </c>
+      <c r="D6" s="3">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3">
+        <v>84</v>
+      </c>
+      <c r="F6" s="3">
+        <v>24</v>
+      </c>
+      <c r="G6" s="3">
+        <v>84</v>
+      </c>
+      <c r="H6" s="3">
+        <v>24</v>
+      </c>
+      <c r="I6" s="3">
+        <v>84</v>
+      </c>
+      <c r="J6" s="3">
+        <v>24</v>
+      </c>
+      <c r="K6" s="3">
+        <v>84</v>
+      </c>
+      <c r="L6" s="3">
+        <v>24</v>
+      </c>
+      <c r="M6" s="3">
+        <v>84</v>
+      </c>
+      <c r="N6" s="3">
         <v>10</v>
       </c>
-      <c r="B2">
+    </row>
+    <row r="7" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>43106</v>
+      </c>
+      <c r="B7" s="3">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3">
+        <v>85</v>
+      </c>
+      <c r="D7" s="3">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3">
+        <v>85</v>
+      </c>
+      <c r="F7" s="3">
+        <v>25</v>
+      </c>
+      <c r="G7" s="3">
+        <v>85</v>
+      </c>
+      <c r="H7" s="3">
+        <v>25</v>
+      </c>
+      <c r="I7" s="3">
+        <v>85</v>
+      </c>
+      <c r="J7" s="3">
+        <v>25</v>
+      </c>
+      <c r="K7" s="3">
+        <v>85</v>
+      </c>
+      <c r="L7" s="3">
+        <v>25</v>
+      </c>
+      <c r="M7" s="3">
+        <v>85</v>
+      </c>
+      <c r="N7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>43107</v>
+      </c>
+      <c r="B8" s="3">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3">
+        <v>86</v>
+      </c>
+      <c r="D8" s="3">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3">
+        <v>86</v>
+      </c>
+      <c r="F8" s="3">
+        <v>26</v>
+      </c>
+      <c r="G8" s="3">
+        <v>86</v>
+      </c>
+      <c r="H8" s="3">
+        <v>26</v>
+      </c>
+      <c r="I8" s="3">
+        <v>86</v>
+      </c>
+      <c r="J8" s="3">
+        <v>26</v>
+      </c>
+      <c r="K8" s="3">
+        <v>86</v>
+      </c>
+      <c r="L8" s="3">
+        <v>26</v>
+      </c>
+      <c r="M8" s="3">
+        <v>86</v>
+      </c>
+      <c r="N8" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>43108</v>
+      </c>
+      <c r="B9" s="3">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3">
+        <v>87</v>
+      </c>
+      <c r="D9" s="3">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3">
+        <v>87</v>
+      </c>
+      <c r="F9" s="3">
+        <v>27</v>
+      </c>
+      <c r="G9" s="3">
+        <v>87</v>
+      </c>
+      <c r="H9" s="3">
+        <v>27</v>
+      </c>
+      <c r="I9" s="3">
+        <v>87</v>
+      </c>
+      <c r="J9" s="3">
+        <v>27</v>
+      </c>
+      <c r="K9" s="3">
+        <v>87</v>
+      </c>
+      <c r="L9" s="3">
+        <v>27</v>
+      </c>
+      <c r="M9" s="3">
+        <v>87</v>
+      </c>
+      <c r="N9" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>43109</v>
+      </c>
+      <c r="B10" s="3">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3">
+        <v>88</v>
+      </c>
+      <c r="D10" s="3">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3">
+        <v>88</v>
+      </c>
+      <c r="F10" s="3">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3">
+        <v>88</v>
+      </c>
+      <c r="H10" s="3">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3">
+        <v>88</v>
+      </c>
+      <c r="J10" s="3">
+        <v>28</v>
+      </c>
+      <c r="K10" s="3">
+        <v>88</v>
+      </c>
+      <c r="L10" s="3">
+        <v>28</v>
+      </c>
+      <c r="M10" s="3">
+        <v>88</v>
+      </c>
+      <c r="N10" s="3">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>43110</v>
+      </c>
+      <c r="B11" s="3">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3">
+        <v>89</v>
+      </c>
+      <c r="D11" s="3">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3">
+        <v>89</v>
+      </c>
+      <c r="F11" s="3">
+        <v>29</v>
+      </c>
+      <c r="G11" s="3">
+        <v>89</v>
+      </c>
+      <c r="H11" s="3">
+        <v>29</v>
+      </c>
+      <c r="I11" s="3">
+        <v>89</v>
+      </c>
+      <c r="J11" s="3">
+        <v>29</v>
+      </c>
+      <c r="K11" s="3">
+        <v>89</v>
+      </c>
+      <c r="L11" s="3">
+        <v>29</v>
+      </c>
+      <c r="M11" s="3">
+        <v>89</v>
+      </c>
+      <c r="N11" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>43111</v>
+      </c>
+      <c r="B12" s="3">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3">
+        <v>90</v>
+      </c>
+      <c r="D12" s="3">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3">
+        <v>90</v>
+      </c>
+      <c r="F12" s="3">
+        <v>30</v>
+      </c>
+      <c r="G12" s="3">
+        <v>90</v>
+      </c>
+      <c r="H12" s="3">
+        <v>30</v>
+      </c>
+      <c r="I12" s="3">
+        <v>90</v>
+      </c>
+      <c r="J12" s="3">
+        <v>30</v>
+      </c>
+      <c r="K12" s="3">
+        <v>90</v>
+      </c>
+      <c r="L12" s="3">
+        <v>30</v>
+      </c>
+      <c r="M12" s="3">
+        <v>90</v>
+      </c>
+      <c r="N12" s="3">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>43112</v>
+      </c>
+      <c r="B13" s="3">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3">
+        <v>91</v>
+      </c>
+      <c r="D13" s="3">
+        <v>31</v>
+      </c>
+      <c r="E13" s="3">
+        <v>91</v>
+      </c>
+      <c r="F13" s="3">
+        <v>31</v>
+      </c>
+      <c r="G13" s="3">
+        <v>91</v>
+      </c>
+      <c r="H13" s="3">
+        <v>31</v>
+      </c>
+      <c r="I13" s="3">
+        <v>91</v>
+      </c>
+      <c r="J13" s="3">
+        <v>31</v>
+      </c>
+      <c r="K13" s="3">
+        <v>91</v>
+      </c>
+      <c r="L13" s="3">
+        <v>31</v>
+      </c>
+      <c r="M13" s="3">
+        <v>91</v>
+      </c>
+      <c r="N13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>43113</v>
+      </c>
+      <c r="B14" s="3">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3">
+        <v>92</v>
+      </c>
+      <c r="D14" s="3">
+        <v>32</v>
+      </c>
+      <c r="E14" s="3">
+        <v>92</v>
+      </c>
+      <c r="F14" s="3">
+        <v>32</v>
+      </c>
+      <c r="G14" s="3">
+        <v>92</v>
+      </c>
+      <c r="H14" s="3">
+        <v>32</v>
+      </c>
+      <c r="I14" s="3">
+        <v>92</v>
+      </c>
+      <c r="J14" s="3">
+        <v>32</v>
+      </c>
+      <c r="K14" s="3">
+        <v>92</v>
+      </c>
+      <c r="L14" s="3">
+        <v>32</v>
+      </c>
+      <c r="M14" s="3">
+        <v>92</v>
+      </c>
+      <c r="N14" s="3">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>43114</v>
+      </c>
+      <c r="B15" s="3">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3">
+        <v>93</v>
+      </c>
+      <c r="D15" s="3">
+        <v>33</v>
+      </c>
+      <c r="E15" s="3">
+        <v>93</v>
+      </c>
+      <c r="F15" s="3">
+        <v>33</v>
+      </c>
+      <c r="G15" s="3">
+        <v>93</v>
+      </c>
+      <c r="H15" s="3">
+        <v>33</v>
+      </c>
+      <c r="I15" s="3">
+        <v>93</v>
+      </c>
+      <c r="J15" s="3">
+        <v>33</v>
+      </c>
+      <c r="K15" s="3">
+        <v>93</v>
+      </c>
+      <c r="L15" s="3">
+        <v>33</v>
+      </c>
+      <c r="M15" s="3">
+        <v>93</v>
+      </c>
+      <c r="N15" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>43115</v>
+      </c>
+      <c r="B16" s="3">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3">
+        <v>94</v>
+      </c>
+      <c r="D16" s="3">
+        <v>34</v>
+      </c>
+      <c r="E16" s="3">
+        <v>94</v>
+      </c>
+      <c r="F16" s="3">
+        <v>34</v>
+      </c>
+      <c r="G16" s="3">
+        <v>94</v>
+      </c>
+      <c r="H16" s="3">
+        <v>34</v>
+      </c>
+      <c r="I16" s="3">
+        <v>94</v>
+      </c>
+      <c r="J16" s="3">
+        <v>34</v>
+      </c>
+      <c r="K16" s="3">
+        <v>94</v>
+      </c>
+      <c r="L16" s="3">
+        <v>34</v>
+      </c>
+      <c r="M16" s="3">
+        <v>94</v>
+      </c>
+      <c r="N16" s="3">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>43116</v>
+      </c>
+      <c r="B17" s="3">
+        <v>35</v>
+      </c>
+      <c r="C17" s="3">
+        <v>95</v>
+      </c>
+      <c r="D17" s="3">
+        <v>35</v>
+      </c>
+      <c r="E17" s="3">
+        <v>95</v>
+      </c>
+      <c r="F17" s="3">
+        <v>35</v>
+      </c>
+      <c r="G17" s="3">
+        <v>95</v>
+      </c>
+      <c r="H17" s="3">
+        <v>35</v>
+      </c>
+      <c r="I17" s="3">
+        <v>95</v>
+      </c>
+      <c r="J17" s="3">
+        <v>35</v>
+      </c>
+      <c r="K17" s="3">
+        <v>95</v>
+      </c>
+      <c r="L17" s="3">
+        <v>35</v>
+      </c>
+      <c r="M17" s="3">
+        <v>95</v>
+      </c>
+      <c r="N17" s="3">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>43117</v>
+      </c>
+      <c r="B18" s="3">
+        <v>36</v>
+      </c>
+      <c r="C18" s="3">
+        <v>96</v>
+      </c>
+      <c r="D18" s="3">
+        <v>36</v>
+      </c>
+      <c r="E18" s="3">
+        <v>96</v>
+      </c>
+      <c r="F18" s="3">
+        <v>36</v>
+      </c>
+      <c r="G18" s="3">
+        <v>96</v>
+      </c>
+      <c r="H18" s="3">
+        <v>36</v>
+      </c>
+      <c r="I18" s="3">
+        <v>96</v>
+      </c>
+      <c r="J18" s="3">
+        <v>36</v>
+      </c>
+      <c r="K18" s="3">
+        <v>96</v>
+      </c>
+      <c r="L18" s="3">
+        <v>36</v>
+      </c>
+      <c r="M18" s="3">
+        <v>96</v>
+      </c>
+      <c r="N18" s="3">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>43118</v>
+      </c>
+      <c r="B19" s="3">
+        <v>37</v>
+      </c>
+      <c r="C19" s="3">
+        <v>97</v>
+      </c>
+      <c r="D19" s="3">
+        <v>37</v>
+      </c>
+      <c r="E19" s="3">
+        <v>97</v>
+      </c>
+      <c r="F19" s="3">
+        <v>37</v>
+      </c>
+      <c r="G19" s="3">
+        <v>97</v>
+      </c>
+      <c r="H19" s="3">
+        <v>37</v>
+      </c>
+      <c r="I19" s="3">
+        <v>97</v>
+      </c>
+      <c r="J19" s="3">
+        <v>37</v>
+      </c>
+      <c r="K19" s="3">
+        <v>97</v>
+      </c>
+      <c r="L19" s="3">
+        <v>37</v>
+      </c>
+      <c r="M19" s="3">
+        <v>97</v>
+      </c>
+      <c r="N19" s="3">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>43119</v>
+      </c>
+      <c r="B20" s="3">
+        <v>38</v>
+      </c>
+      <c r="C20" s="3">
+        <v>98</v>
+      </c>
+      <c r="D20" s="3">
+        <v>38</v>
+      </c>
+      <c r="E20" s="3">
+        <v>98</v>
+      </c>
+      <c r="F20" s="3">
+        <v>38</v>
+      </c>
+      <c r="G20" s="3">
+        <v>98</v>
+      </c>
+      <c r="H20" s="3">
+        <v>38</v>
+      </c>
+      <c r="I20" s="3">
+        <v>98</v>
+      </c>
+      <c r="J20" s="3">
+        <v>38</v>
+      </c>
+      <c r="K20" s="3">
+        <v>98</v>
+      </c>
+      <c r="L20" s="3">
+        <v>38</v>
+      </c>
+      <c r="M20" s="3">
+        <v>98</v>
+      </c>
+      <c r="N20" s="3">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>43120</v>
+      </c>
+      <c r="B21" s="3">
+        <v>39</v>
+      </c>
+      <c r="C21" s="3">
+        <v>99</v>
+      </c>
+      <c r="D21" s="3">
+        <v>39</v>
+      </c>
+      <c r="E21" s="3">
+        <v>99</v>
+      </c>
+      <c r="F21" s="3">
+        <v>39</v>
+      </c>
+      <c r="G21" s="3">
+        <v>99</v>
+      </c>
+      <c r="H21" s="3">
+        <v>39</v>
+      </c>
+      <c r="I21" s="3">
+        <v>99</v>
+      </c>
+      <c r="J21" s="3">
+        <v>39</v>
+      </c>
+      <c r="K21" s="3">
+        <v>99</v>
+      </c>
+      <c r="L21" s="3">
+        <v>39</v>
+      </c>
+      <c r="M21" s="3">
+        <v>99</v>
+      </c>
+      <c r="N21" s="3">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>43121</v>
+      </c>
+      <c r="B22" s="3">
+        <v>40</v>
+      </c>
+      <c r="C22" s="3">
+        <v>100</v>
+      </c>
+      <c r="D22" s="3">
+        <v>40</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>40</v>
+      </c>
+      <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>40</v>
+      </c>
+      <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>40</v>
+      </c>
+      <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>40</v>
+      </c>
+      <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>43122</v>
+      </c>
+      <c r="B23" s="3">
+        <v>41</v>
+      </c>
+      <c r="C23" s="3">
+        <v>101</v>
+      </c>
+      <c r="D23" s="3">
+        <v>41</v>
+      </c>
+      <c r="E23" s="3">
+        <v>101</v>
+      </c>
+      <c r="F23" s="3">
+        <v>41</v>
+      </c>
+      <c r="G23" s="3">
+        <v>101</v>
+      </c>
+      <c r="H23" s="3">
+        <v>41</v>
+      </c>
+      <c r="I23" s="3">
+        <v>101</v>
+      </c>
+      <c r="J23" s="3">
+        <v>41</v>
+      </c>
+      <c r="K23" s="3">
+        <v>101</v>
+      </c>
+      <c r="L23" s="3">
+        <v>41</v>
+      </c>
+      <c r="M23" s="3">
+        <v>101</v>
+      </c>
+      <c r="N23" s="3">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>43123</v>
+      </c>
+      <c r="B24" s="3">
+        <v>42</v>
+      </c>
+      <c r="C24" s="3">
+        <v>102</v>
+      </c>
+      <c r="D24" s="3">
+        <v>42</v>
+      </c>
+      <c r="E24" s="3">
+        <v>102</v>
+      </c>
+      <c r="F24" s="3">
+        <v>42</v>
+      </c>
+      <c r="G24" s="3">
+        <v>102</v>
+      </c>
+      <c r="H24" s="3">
+        <v>42</v>
+      </c>
+      <c r="I24" s="3">
+        <v>102</v>
+      </c>
+      <c r="J24" s="3">
+        <v>42</v>
+      </c>
+      <c r="K24" s="3">
+        <v>102</v>
+      </c>
+      <c r="L24" s="3">
+        <v>42</v>
+      </c>
+      <c r="M24" s="3">
+        <v>102</v>
+      </c>
+      <c r="N24" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>43124</v>
+      </c>
+      <c r="B25" s="3">
+        <v>43</v>
+      </c>
+      <c r="C25" s="3">
+        <v>103</v>
+      </c>
+      <c r="D25" s="3">
+        <v>43</v>
+      </c>
+      <c r="E25" s="3">
+        <v>103</v>
+      </c>
+      <c r="F25" s="3">
+        <v>43</v>
+      </c>
+      <c r="G25" s="3">
+        <v>103</v>
+      </c>
+      <c r="H25" s="3">
+        <v>43</v>
+      </c>
+      <c r="I25" s="3">
+        <v>103</v>
+      </c>
+      <c r="J25" s="3">
+        <v>43</v>
+      </c>
+      <c r="K25" s="3">
+        <v>103</v>
+      </c>
+      <c r="L25" s="3">
+        <v>43</v>
+      </c>
+      <c r="M25" s="3">
+        <v>103</v>
+      </c>
+      <c r="N25" s="3">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>43125</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44</v>
+      </c>
+      <c r="C26" s="3">
+        <v>104</v>
+      </c>
+      <c r="D26" s="3">
+        <v>44</v>
+      </c>
+      <c r="E26" s="3">
+        <v>104</v>
+      </c>
+      <c r="F26" s="3">
+        <v>44</v>
+      </c>
+      <c r="G26" s="3">
+        <v>104</v>
+      </c>
+      <c r="H26" s="3">
+        <v>44</v>
+      </c>
+      <c r="I26" s="3">
+        <v>104</v>
+      </c>
+      <c r="J26" s="3">
+        <v>44</v>
+      </c>
+      <c r="K26" s="3">
+        <v>104</v>
+      </c>
+      <c r="L26" s="3">
+        <v>44</v>
+      </c>
+      <c r="M26" s="3">
+        <v>104</v>
+      </c>
+      <c r="N26" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>43126</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45</v>
+      </c>
+      <c r="C27" s="3">
+        <v>105</v>
+      </c>
+      <c r="D27" s="3">
+        <v>45</v>
+      </c>
+      <c r="E27" s="3">
+        <v>105</v>
+      </c>
+      <c r="F27" s="3">
+        <v>45</v>
+      </c>
+      <c r="G27" s="3">
+        <v>105</v>
+      </c>
+      <c r="H27" s="3">
+        <v>45</v>
+      </c>
+      <c r="I27" s="3">
+        <v>105</v>
+      </c>
+      <c r="J27" s="3">
+        <v>45</v>
+      </c>
+      <c r="K27" s="3">
+        <v>105</v>
+      </c>
+      <c r="L27" s="3">
+        <v>45</v>
+      </c>
+      <c r="M27" s="3">
+        <v>105</v>
+      </c>
+      <c r="N27" s="3">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>43127</v>
+      </c>
+      <c r="B28" s="3">
+        <v>46</v>
+      </c>
+      <c r="C28" s="3">
+        <v>106</v>
+      </c>
+      <c r="D28" s="3">
+        <v>46</v>
+      </c>
+      <c r="E28" s="3">
+        <v>106</v>
+      </c>
+      <c r="F28" s="3">
+        <v>46</v>
+      </c>
+      <c r="G28" s="3">
+        <v>106</v>
+      </c>
+      <c r="H28" s="3">
+        <v>46</v>
+      </c>
+      <c r="I28" s="3">
+        <v>106</v>
+      </c>
+      <c r="J28" s="3">
+        <v>46</v>
+      </c>
+      <c r="K28" s="3">
+        <v>106</v>
+      </c>
+      <c r="L28" s="3">
+        <v>46</v>
+      </c>
+      <c r="M28" s="3">
+        <v>106</v>
+      </c>
+      <c r="N28" s="3">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>43128</v>
+      </c>
+      <c r="B29" s="3">
+        <v>47</v>
+      </c>
+      <c r="C29" s="3">
+        <v>107</v>
+      </c>
+      <c r="D29" s="3">
+        <v>47</v>
+      </c>
+      <c r="E29" s="3">
+        <v>107</v>
+      </c>
+      <c r="F29" s="3">
+        <v>47</v>
+      </c>
+      <c r="G29" s="3">
+        <v>107</v>
+      </c>
+      <c r="H29" s="3">
+        <v>47</v>
+      </c>
+      <c r="I29" s="3">
+        <v>107</v>
+      </c>
+      <c r="J29" s="3">
+        <v>47</v>
+      </c>
+      <c r="K29" s="3">
+        <v>107</v>
+      </c>
+      <c r="L29" s="3">
+        <v>47</v>
+      </c>
+      <c r="M29" s="3">
+        <v>107</v>
+      </c>
+      <c r="N29" s="3">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>43129</v>
+      </c>
+      <c r="B30" s="3">
+        <v>48</v>
+      </c>
+      <c r="C30" s="3">
+        <v>108</v>
+      </c>
+      <c r="D30" s="3">
+        <v>48</v>
+      </c>
+      <c r="E30" s="3">
+        <v>108</v>
+      </c>
+      <c r="F30" s="3">
+        <v>48</v>
+      </c>
+      <c r="G30" s="3">
+        <v>108</v>
+      </c>
+      <c r="H30" s="3">
+        <v>48</v>
+      </c>
+      <c r="I30" s="3">
+        <v>108</v>
+      </c>
+      <c r="J30" s="3">
+        <v>48</v>
+      </c>
+      <c r="K30" s="3">
+        <v>108</v>
+      </c>
+      <c r="L30" s="3">
+        <v>48</v>
+      </c>
+      <c r="M30" s="3">
+        <v>108</v>
+      </c>
+      <c r="N30" s="3">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>43130</v>
+      </c>
+      <c r="B31" s="3">
+        <v>49</v>
+      </c>
+      <c r="C31" s="3">
+        <v>109</v>
+      </c>
+      <c r="D31" s="3">
+        <v>49</v>
+      </c>
+      <c r="E31" s="3">
+        <v>109</v>
+      </c>
+      <c r="F31" s="3">
+        <v>49</v>
+      </c>
+      <c r="G31" s="3">
+        <v>109</v>
+      </c>
+      <c r="H31" s="3">
+        <v>49</v>
+      </c>
+      <c r="I31" s="3">
+        <v>109</v>
+      </c>
+      <c r="J31" s="3">
+        <v>49</v>
+      </c>
+      <c r="K31" s="3">
+        <v>109</v>
+      </c>
+      <c r="L31" s="3">
+        <v>49</v>
+      </c>
+      <c r="M31" s="3">
+        <v>109</v>
+      </c>
+      <c r="N31" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>43131</v>
+      </c>
+      <c r="B32" s="3">
+        <v>50</v>
+      </c>
+      <c r="C32" s="3">
+        <v>110</v>
+      </c>
+      <c r="D32" s="3">
+        <v>50</v>
+      </c>
+      <c r="E32" s="3">
+        <v>110</v>
+      </c>
+      <c r="F32" s="3">
+        <v>50</v>
+      </c>
+      <c r="G32" s="3">
+        <v>110</v>
+      </c>
+      <c r="H32" s="3">
+        <v>50</v>
+      </c>
+      <c r="I32" s="3">
+        <v>110</v>
+      </c>
+      <c r="J32" s="3">
+        <v>50</v>
+      </c>
+      <c r="K32" s="3">
+        <v>110</v>
+      </c>
+      <c r="L32" s="3">
+        <v>50</v>
+      </c>
+      <c r="M32" s="3">
+        <v>110</v>
+      </c>
+      <c r="N32" s="4">
+        <v>10.94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>43132</v>
+      </c>
+      <c r="B33" s="3">
+        <v>51</v>
+      </c>
+      <c r="C33" s="3">
+        <v>111</v>
+      </c>
+      <c r="D33" s="3">
+        <v>51</v>
+      </c>
+      <c r="E33" s="3">
+        <v>111</v>
+      </c>
+      <c r="F33" s="3">
+        <v>51</v>
+      </c>
+      <c r="G33" s="3">
+        <v>111</v>
+      </c>
+      <c r="H33" s="3">
+        <v>51</v>
+      </c>
+      <c r="I33" s="3">
+        <v>111</v>
+      </c>
+      <c r="J33" s="3">
+        <v>51</v>
+      </c>
+      <c r="K33" s="3">
+        <v>111</v>
+      </c>
+      <c r="L33" s="3">
+        <v>51</v>
+      </c>
+      <c r="M33" s="3">
+        <v>111</v>
+      </c>
+      <c r="N33" s="4">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>43133</v>
+      </c>
+      <c r="B34" s="3">
+        <v>52</v>
+      </c>
+      <c r="C34" s="3">
+        <v>112</v>
+      </c>
+      <c r="D34" s="3">
+        <v>52</v>
+      </c>
+      <c r="E34" s="3">
+        <v>112</v>
+      </c>
+      <c r="F34" s="3">
+        <v>52</v>
+      </c>
+      <c r="G34" s="3">
+        <v>112</v>
+      </c>
+      <c r="H34" s="3">
+        <v>52</v>
+      </c>
+      <c r="I34" s="3">
+        <v>112</v>
+      </c>
+      <c r="J34" s="3">
+        <v>52</v>
+      </c>
+      <c r="K34" s="3">
+        <v>112</v>
+      </c>
+      <c r="L34" s="3">
+        <v>52</v>
+      </c>
+      <c r="M34" s="3">
+        <v>112</v>
+      </c>
+      <c r="N34" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>43134</v>
+      </c>
+      <c r="B35" s="3">
+        <v>53</v>
+      </c>
+      <c r="C35" s="3">
+        <v>113</v>
+      </c>
+      <c r="D35" s="3">
+        <v>53</v>
+      </c>
+      <c r="E35" s="3">
+        <v>113</v>
+      </c>
+      <c r="F35" s="3">
+        <v>53</v>
+      </c>
+      <c r="G35" s="3">
+        <v>113</v>
+      </c>
+      <c r="H35" s="3">
+        <v>53</v>
+      </c>
+      <c r="I35" s="3">
+        <v>113</v>
+      </c>
+      <c r="J35" s="3">
+        <v>53</v>
+      </c>
+      <c r="K35" s="3">
+        <v>113</v>
+      </c>
+      <c r="L35" s="3">
+        <v>53</v>
+      </c>
+      <c r="M35" s="3">
+        <v>113</v>
+      </c>
+      <c r="N35" s="4">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>43135</v>
+      </c>
+      <c r="B36" s="3">
+        <v>54</v>
+      </c>
+      <c r="C36" s="3">
+        <v>114</v>
+      </c>
+      <c r="D36" s="3">
+        <v>54</v>
+      </c>
+      <c r="E36" s="3">
+        <v>114</v>
+      </c>
+      <c r="F36" s="3">
+        <v>54</v>
+      </c>
+      <c r="G36" s="3">
+        <v>114</v>
+      </c>
+      <c r="H36" s="3">
+        <v>54</v>
+      </c>
+      <c r="I36" s="3">
+        <v>114</v>
+      </c>
+      <c r="J36" s="3">
+        <v>54</v>
+      </c>
+      <c r="K36" s="3">
+        <v>114</v>
+      </c>
+      <c r="L36" s="3">
+        <v>54</v>
+      </c>
+      <c r="M36" s="3">
+        <v>114</v>
+      </c>
+      <c r="N36" s="4">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>43136</v>
+      </c>
+      <c r="B37" s="3">
+        <v>55</v>
+      </c>
+      <c r="C37" s="3">
+        <v>115</v>
+      </c>
+      <c r="D37" s="3">
+        <v>55</v>
+      </c>
+      <c r="E37" s="3">
+        <v>115</v>
+      </c>
+      <c r="F37" s="3">
+        <v>55</v>
+      </c>
+      <c r="G37" s="3">
+        <v>115</v>
+      </c>
+      <c r="H37" s="3">
+        <v>55</v>
+      </c>
+      <c r="I37" s="3">
+        <v>115</v>
+      </c>
+      <c r="J37" s="3">
+        <v>55</v>
+      </c>
+      <c r="K37" s="3">
+        <v>115</v>
+      </c>
+      <c r="L37" s="3">
+        <v>55</v>
+      </c>
+      <c r="M37" s="3">
+        <v>115</v>
+      </c>
+      <c r="N37" s="4">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>43137</v>
+      </c>
+      <c r="B38" s="3">
+        <v>56</v>
+      </c>
+      <c r="C38" s="3">
+        <v>116</v>
+      </c>
+      <c r="D38" s="3">
+        <v>56</v>
+      </c>
+      <c r="E38" s="3">
+        <v>116</v>
+      </c>
+      <c r="F38" s="3">
+        <v>56</v>
+      </c>
+      <c r="G38" s="3">
+        <v>116</v>
+      </c>
+      <c r="H38" s="3">
+        <v>56</v>
+      </c>
+      <c r="I38" s="3">
+        <v>116</v>
+      </c>
+      <c r="J38" s="3">
+        <v>56</v>
+      </c>
+      <c r="K38" s="3">
+        <v>116</v>
+      </c>
+      <c r="L38" s="3">
+        <v>56</v>
+      </c>
+      <c r="M38" s="3">
+        <v>116</v>
+      </c>
+      <c r="N38" s="4">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>43138</v>
+      </c>
+      <c r="B39" s="3">
+        <v>57</v>
+      </c>
+      <c r="C39" s="3">
+        <v>117</v>
+      </c>
+      <c r="D39" s="3">
+        <v>57</v>
+      </c>
+      <c r="E39" s="3">
+        <v>117</v>
+      </c>
+      <c r="F39" s="3">
+        <v>57</v>
+      </c>
+      <c r="G39" s="3">
+        <v>117</v>
+      </c>
+      <c r="H39" s="3">
+        <v>57</v>
+      </c>
+      <c r="I39" s="3">
+        <v>117</v>
+      </c>
+      <c r="J39" s="3">
+        <v>57</v>
+      </c>
+      <c r="K39" s="3">
+        <v>117</v>
+      </c>
+      <c r="L39" s="3">
+        <v>57</v>
+      </c>
+      <c r="M39" s="3">
+        <v>117</v>
+      </c>
+      <c r="N39" s="4">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>43139</v>
+      </c>
+      <c r="B40" s="3">
+        <v>58</v>
+      </c>
+      <c r="C40" s="3">
+        <v>118</v>
+      </c>
+      <c r="D40" s="3">
+        <v>58</v>
+      </c>
+      <c r="E40" s="3">
+        <v>118</v>
+      </c>
+      <c r="F40" s="3">
+        <v>58</v>
+      </c>
+      <c r="G40" s="3">
+        <v>118</v>
+      </c>
+      <c r="H40" s="3">
+        <v>58</v>
+      </c>
+      <c r="I40" s="3">
+        <v>118</v>
+      </c>
+      <c r="J40" s="3">
+        <v>58</v>
+      </c>
+      <c r="K40" s="3">
+        <v>118</v>
+      </c>
+      <c r="L40" s="3">
+        <v>58</v>
+      </c>
+      <c r="M40" s="3">
+        <v>118</v>
+      </c>
+      <c r="N40" s="4">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>43140</v>
+      </c>
+      <c r="B41" s="3">
+        <v>59</v>
+      </c>
+      <c r="C41" s="3">
+        <v>119</v>
+      </c>
+      <c r="D41" s="3">
+        <v>59</v>
+      </c>
+      <c r="E41" s="3">
+        <v>119</v>
+      </c>
+      <c r="F41" s="3">
+        <v>59</v>
+      </c>
+      <c r="G41" s="3">
+        <v>119</v>
+      </c>
+      <c r="H41" s="3">
+        <v>59</v>
+      </c>
+      <c r="I41" s="3">
+        <v>119</v>
+      </c>
+      <c r="J41" s="3">
+        <v>59</v>
+      </c>
+      <c r="K41" s="3">
+        <v>119</v>
+      </c>
+      <c r="L41" s="3">
+        <v>59</v>
+      </c>
+      <c r="M41" s="3">
+        <v>119</v>
+      </c>
+      <c r="N41" s="4">
+        <v>10.94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>43141</v>
+      </c>
+      <c r="B42" s="3">
+        <v>60</v>
+      </c>
+      <c r="C42" s="3">
+        <v>120</v>
+      </c>
+      <c r="D42" s="3">
+        <v>60</v>
+      </c>
+      <c r="E42" s="3">
+        <v>120</v>
+      </c>
+      <c r="F42" s="3">
+        <v>60</v>
+      </c>
+      <c r="G42" s="3">
+        <v>120</v>
+      </c>
+      <c r="H42" s="3">
+        <v>60</v>
+      </c>
+      <c r="I42" s="3">
+        <v>120</v>
+      </c>
+      <c r="J42" s="3">
+        <v>60</v>
+      </c>
+      <c r="K42" s="3">
+        <v>120</v>
+      </c>
+      <c r="L42" s="3">
+        <v>60</v>
+      </c>
+      <c r="M42" s="3">
+        <v>120</v>
+      </c>
+      <c r="N42" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>43142</v>
+      </c>
+      <c r="B43" s="3">
+        <v>61</v>
+      </c>
+      <c r="C43" s="3">
+        <v>121</v>
+      </c>
+      <c r="D43" s="3">
+        <v>61</v>
+      </c>
+      <c r="E43" s="3">
+        <v>121</v>
+      </c>
+      <c r="F43" s="3">
+        <v>61</v>
+      </c>
+      <c r="G43" s="3">
+        <v>121</v>
+      </c>
+      <c r="H43" s="3">
+        <v>61</v>
+      </c>
+      <c r="I43" s="3">
+        <v>121</v>
+      </c>
+      <c r="J43" s="3">
+        <v>61</v>
+      </c>
+      <c r="K43" s="3">
+        <v>121</v>
+      </c>
+      <c r="L43" s="3">
+        <v>61</v>
+      </c>
+      <c r="M43" s="3">
+        <v>121</v>
+      </c>
+      <c r="N43" s="4">
+        <v>13.93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>43143</v>
+      </c>
+      <c r="B44" s="3">
+        <v>62</v>
+      </c>
+      <c r="C44" s="3">
+        <v>122</v>
+      </c>
+      <c r="D44" s="3">
+        <v>62</v>
+      </c>
+      <c r="E44" s="3">
+        <v>122</v>
+      </c>
+      <c r="F44" s="3">
+        <v>62</v>
+      </c>
+      <c r="G44" s="3">
+        <v>122</v>
+      </c>
+      <c r="H44" s="3">
+        <v>62</v>
+      </c>
+      <c r="I44" s="3">
+        <v>122</v>
+      </c>
+      <c r="J44" s="3">
+        <v>62</v>
+      </c>
+      <c r="K44" s="3">
+        <v>122</v>
+      </c>
+      <c r="L44" s="3">
+        <v>62</v>
+      </c>
+      <c r="M44" s="3">
+        <v>122</v>
+      </c>
+      <c r="N44" s="4">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>43144</v>
+      </c>
+      <c r="B45" s="3">
+        <v>63</v>
+      </c>
+      <c r="C45" s="3">
+        <v>123</v>
+      </c>
+      <c r="D45" s="3">
+        <v>63</v>
+      </c>
+      <c r="E45" s="3">
+        <v>123</v>
+      </c>
+      <c r="F45" s="3">
+        <v>63</v>
+      </c>
+      <c r="G45" s="3">
+        <v>123</v>
+      </c>
+      <c r="H45" s="3">
+        <v>63</v>
+      </c>
+      <c r="I45" s="3">
+        <v>123</v>
+      </c>
+      <c r="J45" s="3">
+        <v>63</v>
+      </c>
+      <c r="K45" s="3">
+        <v>123</v>
+      </c>
+      <c r="L45" s="3">
+        <v>63</v>
+      </c>
+      <c r="M45" s="3">
+        <v>123</v>
+      </c>
+      <c r="N45" s="4">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>43145</v>
+      </c>
+      <c r="B46" s="3">
+        <v>64</v>
+      </c>
+      <c r="C46" s="3">
+        <v>124</v>
+      </c>
+      <c r="D46" s="3">
+        <v>64</v>
+      </c>
+      <c r="E46" s="3">
+        <v>124</v>
+      </c>
+      <c r="F46" s="3">
+        <v>64</v>
+      </c>
+      <c r="G46" s="3">
+        <v>124</v>
+      </c>
+      <c r="H46" s="3">
+        <v>64</v>
+      </c>
+      <c r="I46" s="3">
+        <v>124</v>
+      </c>
+      <c r="J46" s="3">
+        <v>64</v>
+      </c>
+      <c r="K46" s="3">
+        <v>124</v>
+      </c>
+      <c r="L46" s="3">
+        <v>64</v>
+      </c>
+      <c r="M46" s="3">
+        <v>124</v>
+      </c>
+      <c r="N46" s="4">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>43146</v>
+      </c>
+      <c r="B47" s="3">
+        <v>65</v>
+      </c>
+      <c r="C47" s="3">
+        <v>125</v>
+      </c>
+      <c r="D47" s="3">
+        <v>65</v>
+      </c>
+      <c r="E47" s="3">
+        <v>125</v>
+      </c>
+      <c r="F47" s="3">
+        <v>65</v>
+      </c>
+      <c r="G47" s="3">
+        <v>125</v>
+      </c>
+      <c r="H47" s="3">
+        <v>65</v>
+      </c>
+      <c r="I47" s="3">
+        <v>125</v>
+      </c>
+      <c r="J47" s="3">
+        <v>65</v>
+      </c>
+      <c r="K47" s="3">
+        <v>125</v>
+      </c>
+      <c r="L47" s="3">
+        <v>65</v>
+      </c>
+      <c r="M47" s="3">
+        <v>125</v>
+      </c>
+      <c r="N47" s="4">
+        <v>18.22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>43147</v>
+      </c>
+      <c r="B48" s="3">
+        <v>66</v>
+      </c>
+      <c r="C48" s="3">
+        <v>126</v>
+      </c>
+      <c r="D48" s="3">
+        <v>66</v>
+      </c>
+      <c r="E48" s="3">
+        <v>126</v>
+      </c>
+      <c r="F48" s="3">
+        <v>66</v>
+      </c>
+      <c r="G48" s="3">
+        <v>126</v>
+      </c>
+      <c r="H48" s="3">
+        <v>66</v>
+      </c>
+      <c r="I48" s="3">
+        <v>126</v>
+      </c>
+      <c r="J48" s="3">
+        <v>66</v>
+      </c>
+      <c r="K48" s="3">
+        <v>126</v>
+      </c>
+      <c r="L48" s="3">
+        <v>66</v>
+      </c>
+      <c r="M48" s="3">
+        <v>126</v>
+      </c>
+      <c r="N48" s="4">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>43148</v>
+      </c>
+      <c r="B49" s="3">
+        <v>67</v>
+      </c>
+      <c r="C49" s="3">
+        <v>127</v>
+      </c>
+      <c r="D49" s="3">
+        <v>67</v>
+      </c>
+      <c r="E49" s="3">
+        <v>127</v>
+      </c>
+      <c r="F49" s="3">
+        <v>67</v>
+      </c>
+      <c r="G49" s="3">
+        <v>127</v>
+      </c>
+      <c r="H49" s="3">
+        <v>67</v>
+      </c>
+      <c r="I49" s="3">
+        <v>127</v>
+      </c>
+      <c r="J49" s="3">
+        <v>67</v>
+      </c>
+      <c r="K49" s="3">
+        <v>127</v>
+      </c>
+      <c r="L49" s="3">
+        <v>67</v>
+      </c>
+      <c r="M49" s="3">
+        <v>127</v>
+      </c>
+      <c r="N49" s="4">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>43149</v>
+      </c>
+      <c r="B50" s="3">
+        <v>68</v>
+      </c>
+      <c r="C50" s="3">
+        <v>128</v>
+      </c>
+      <c r="D50" s="3">
+        <v>68</v>
+      </c>
+      <c r="E50" s="3">
+        <v>128</v>
+      </c>
+      <c r="F50" s="3">
+        <v>68</v>
+      </c>
+      <c r="G50" s="3">
+        <v>128</v>
+      </c>
+      <c r="H50" s="3">
+        <v>68</v>
+      </c>
+      <c r="I50" s="3">
+        <v>128</v>
+      </c>
+      <c r="J50" s="3">
+        <v>68</v>
+      </c>
+      <c r="K50" s="3">
+        <v>128</v>
+      </c>
+      <c r="L50" s="3">
+        <v>68</v>
+      </c>
+      <c r="M50" s="3">
+        <v>128</v>
+      </c>
+      <c r="N50" s="4">
+        <v>15.19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>43150</v>
+      </c>
+      <c r="B51" s="3">
+        <v>69</v>
+      </c>
+      <c r="C51" s="3">
+        <v>129</v>
+      </c>
+      <c r="D51" s="3">
+        <v>69</v>
+      </c>
+      <c r="E51" s="3">
+        <v>129</v>
+      </c>
+      <c r="F51" s="3">
+        <v>69</v>
+      </c>
+      <c r="G51" s="3">
+        <v>129</v>
+      </c>
+      <c r="H51" s="3">
+        <v>69</v>
+      </c>
+      <c r="I51" s="3">
+        <v>129</v>
+      </c>
+      <c r="J51" s="3">
+        <v>69</v>
+      </c>
+      <c r="K51" s="3">
+        <v>129</v>
+      </c>
+      <c r="L51" s="3">
+        <v>69</v>
+      </c>
+      <c r="M51" s="3">
+        <v>129</v>
+      </c>
+      <c r="N51" s="4">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>43151</v>
+      </c>
+      <c r="B52" s="3">
+        <v>70</v>
+      </c>
+      <c r="C52" s="3">
+        <v>130</v>
+      </c>
+      <c r="D52" s="3">
+        <v>70</v>
+      </c>
+      <c r="E52" s="3">
+        <v>130</v>
+      </c>
+      <c r="F52" s="3">
+        <v>70</v>
+      </c>
+      <c r="G52" s="3">
+        <v>130</v>
+      </c>
+      <c r="H52" s="3">
+        <v>70</v>
+      </c>
+      <c r="I52" s="3">
+        <v>130</v>
+      </c>
+      <c r="J52" s="3">
+        <v>70</v>
+      </c>
+      <c r="K52" s="3">
+        <v>130</v>
+      </c>
+      <c r="L52" s="3">
+        <v>70</v>
+      </c>
+      <c r="M52" s="3">
+        <v>130</v>
+      </c>
+      <c r="N52" s="4">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>43152</v>
+      </c>
+      <c r="B53" s="3">
+        <v>71</v>
+      </c>
+      <c r="C53" s="3">
+        <v>131</v>
+      </c>
+      <c r="D53" s="3">
+        <v>71</v>
+      </c>
+      <c r="E53" s="3">
+        <v>131</v>
+      </c>
+      <c r="F53" s="3">
+        <v>71</v>
+      </c>
+      <c r="G53" s="3">
+        <v>131</v>
+      </c>
+      <c r="H53" s="3">
+        <v>71</v>
+      </c>
+      <c r="I53" s="3">
+        <v>131</v>
+      </c>
+      <c r="J53" s="3">
+        <v>71</v>
+      </c>
+      <c r="K53" s="3">
+        <v>131</v>
+      </c>
+      <c r="L53" s="3">
+        <v>71</v>
+      </c>
+      <c r="M53" s="3">
+        <v>131</v>
+      </c>
+      <c r="N53" s="4">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>43153</v>
+      </c>
+      <c r="B54" s="3">
+        <v>72</v>
+      </c>
+      <c r="C54" s="3">
+        <v>132</v>
+      </c>
+      <c r="D54" s="3">
+        <v>72</v>
+      </c>
+      <c r="E54" s="3">
+        <v>132</v>
+      </c>
+      <c r="F54" s="3">
+        <v>72</v>
+      </c>
+      <c r="G54" s="3">
+        <v>132</v>
+      </c>
+      <c r="H54" s="3">
+        <v>72</v>
+      </c>
+      <c r="I54" s="3">
+        <v>132</v>
+      </c>
+      <c r="J54" s="3">
+        <v>72</v>
+      </c>
+      <c r="K54" s="3">
+        <v>132</v>
+      </c>
+      <c r="L54" s="3">
+        <v>72</v>
+      </c>
+      <c r="M54" s="3">
+        <v>132</v>
+      </c>
+      <c r="N54" s="4">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>43154</v>
+      </c>
+      <c r="B55" s="3">
+        <v>73</v>
+      </c>
+      <c r="C55" s="3">
+        <v>133</v>
+      </c>
+      <c r="D55" s="3">
+        <v>73</v>
+      </c>
+      <c r="E55" s="3">
+        <v>133</v>
+      </c>
+      <c r="F55" s="3">
+        <v>73</v>
+      </c>
+      <c r="G55" s="3">
+        <v>133</v>
+      </c>
+      <c r="H55" s="3">
+        <v>73</v>
+      </c>
+      <c r="I55" s="3">
+        <v>133</v>
+      </c>
+      <c r="J55" s="3">
+        <v>73</v>
+      </c>
+      <c r="K55" s="3">
+        <v>133</v>
+      </c>
+      <c r="L55" s="3">
+        <v>73</v>
+      </c>
+      <c r="M55" s="3">
+        <v>133</v>
+      </c>
+      <c r="N55" s="4">
+        <v>11.93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>43155</v>
+      </c>
+      <c r="B56" s="3">
+        <v>74</v>
+      </c>
+      <c r="C56" s="3">
+        <v>134</v>
+      </c>
+      <c r="D56" s="3">
+        <v>74</v>
+      </c>
+      <c r="E56" s="3">
+        <v>134</v>
+      </c>
+      <c r="F56" s="3">
+        <v>74</v>
+      </c>
+      <c r="G56" s="3">
+        <v>134</v>
+      </c>
+      <c r="H56" s="3">
+        <v>74</v>
+      </c>
+      <c r="I56" s="3">
+        <v>134</v>
+      </c>
+      <c r="J56" s="3">
+        <v>74</v>
+      </c>
+      <c r="K56" s="3">
+        <v>134</v>
+      </c>
+      <c r="L56" s="3">
+        <v>74</v>
+      </c>
+      <c r="M56" s="3">
+        <v>134</v>
+      </c>
+      <c r="N56" s="4">
+        <v>10.94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>43156</v>
+      </c>
+      <c r="B57" s="3">
+        <v>75</v>
+      </c>
+      <c r="C57" s="3">
+        <v>135</v>
+      </c>
+      <c r="D57" s="3">
+        <v>75</v>
+      </c>
+      <c r="E57" s="3">
+        <v>135</v>
+      </c>
+      <c r="F57" s="3">
+        <v>75</v>
+      </c>
+      <c r="G57" s="3">
+        <v>135</v>
+      </c>
+      <c r="H57" s="3">
+        <v>75</v>
+      </c>
+      <c r="I57" s="3">
+        <v>135</v>
+      </c>
+      <c r="J57" s="3">
+        <v>75</v>
+      </c>
+      <c r="K57" s="3">
+        <v>135</v>
+      </c>
+      <c r="L57" s="3">
+        <v>75</v>
+      </c>
+      <c r="M57" s="3">
+        <v>135</v>
+      </c>
+      <c r="N57" s="4">
+        <v>9.4600000000000009</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>43157</v>
+      </c>
+      <c r="B58" s="3">
+        <v>76</v>
+      </c>
+      <c r="C58" s="3">
+        <v>136</v>
+      </c>
+      <c r="D58" s="3">
+        <v>76</v>
+      </c>
+      <c r="E58" s="3">
+        <v>136</v>
+      </c>
+      <c r="F58" s="3">
+        <v>76</v>
+      </c>
+      <c r="G58" s="3">
+        <v>136</v>
+      </c>
+      <c r="H58" s="3">
+        <v>76</v>
+      </c>
+      <c r="I58" s="3">
+        <v>136</v>
+      </c>
+      <c r="J58" s="3">
+        <v>76</v>
+      </c>
+      <c r="K58" s="3">
+        <v>136</v>
+      </c>
+      <c r="L58" s="3">
+        <v>76</v>
+      </c>
+      <c r="M58" s="3">
+        <v>136</v>
+      </c>
+      <c r="N58" s="4">
+        <v>9.9600000000000009</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>43158</v>
+      </c>
+      <c r="B59" s="3">
+        <v>77</v>
+      </c>
+      <c r="C59" s="3">
+        <v>137</v>
+      </c>
+      <c r="D59" s="3">
+        <v>77</v>
+      </c>
+      <c r="E59" s="3">
+        <v>137</v>
+      </c>
+      <c r="F59" s="3">
+        <v>77</v>
+      </c>
+      <c r="G59" s="3">
+        <v>137</v>
+      </c>
+      <c r="H59" s="3">
+        <v>77</v>
+      </c>
+      <c r="I59" s="3">
+        <v>137</v>
+      </c>
+      <c r="J59" s="3">
+        <v>77</v>
+      </c>
+      <c r="K59" s="3">
+        <v>137</v>
+      </c>
+      <c r="L59" s="3">
+        <v>77</v>
+      </c>
+      <c r="M59" s="3">
+        <v>137</v>
+      </c>
+      <c r="N59" s="3">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>43159</v>
+      </c>
+      <c r="B60" s="3">
+        <v>78</v>
+      </c>
+      <c r="C60" s="3">
+        <v>138</v>
+      </c>
+      <c r="D60" s="3">
+        <v>78</v>
+      </c>
+      <c r="E60" s="3">
+        <v>138</v>
+      </c>
+      <c r="F60" s="3">
+        <v>78</v>
+      </c>
+      <c r="G60" s="3">
+        <v>138</v>
+      </c>
+      <c r="H60" s="3">
+        <v>78</v>
+      </c>
+      <c r="I60" s="3">
+        <v>138</v>
+      </c>
+      <c r="J60" s="3">
+        <v>78</v>
+      </c>
+      <c r="K60" s="3">
+        <v>138</v>
+      </c>
+      <c r="L60" s="3">
+        <v>78</v>
+      </c>
+      <c r="M60" s="3">
+        <v>138</v>
+      </c>
+      <c r="N60" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>43160</v>
+      </c>
+      <c r="B61" s="3">
         <v>79</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>11</v>
-      </c>
-      <c r="B3">
+      <c r="C61" s="3">
+        <v>139</v>
+      </c>
+      <c r="D61" s="3">
+        <v>79</v>
+      </c>
+      <c r="E61" s="3">
+        <v>139</v>
+      </c>
+      <c r="F61" s="3">
+        <v>79</v>
+      </c>
+      <c r="G61" s="3">
+        <v>139</v>
+      </c>
+      <c r="H61" s="3">
+        <v>79</v>
+      </c>
+      <c r="I61" s="3">
+        <v>139</v>
+      </c>
+      <c r="J61" s="3">
+        <v>79</v>
+      </c>
+      <c r="K61" s="3">
+        <v>139</v>
+      </c>
+      <c r="L61" s="3">
+        <v>79</v>
+      </c>
+      <c r="M61" s="3">
+        <v>139</v>
+      </c>
+      <c r="N61" s="3">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>43161</v>
+      </c>
+      <c r="B62" s="3">
         <v>80</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>12</v>
-      </c>
-      <c r="B4">
+      <c r="C62" s="3">
+        <v>140</v>
+      </c>
+      <c r="D62" s="3">
+        <v>80</v>
+      </c>
+      <c r="E62" s="3">
+        <v>140</v>
+      </c>
+      <c r="F62" s="3">
+        <v>80</v>
+      </c>
+      <c r="G62" s="3">
+        <v>140</v>
+      </c>
+      <c r="H62" s="3">
+        <v>80</v>
+      </c>
+      <c r="I62" s="3">
+        <v>140</v>
+      </c>
+      <c r="J62" s="3">
+        <v>80</v>
+      </c>
+      <c r="K62" s="3">
+        <v>140</v>
+      </c>
+      <c r="L62" s="3">
+        <v>80</v>
+      </c>
+      <c r="M62" s="3">
+        <v>140</v>
+      </c>
+      <c r="N62" s="3">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>43162</v>
+      </c>
+      <c r="B63" s="3">
         <v>81</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>13</v>
-      </c>
-      <c r="B5">
+      <c r="C63" s="3">
+        <v>141</v>
+      </c>
+      <c r="D63" s="3">
+        <v>81</v>
+      </c>
+      <c r="E63" s="3">
+        <v>141</v>
+      </c>
+      <c r="F63" s="3">
+        <v>81</v>
+      </c>
+      <c r="G63" s="3">
+        <v>141</v>
+      </c>
+      <c r="H63" s="3">
+        <v>81</v>
+      </c>
+      <c r="I63" s="3">
+        <v>141</v>
+      </c>
+      <c r="J63" s="3">
+        <v>81</v>
+      </c>
+      <c r="K63" s="3">
+        <v>141</v>
+      </c>
+      <c r="L63" s="3">
+        <v>81</v>
+      </c>
+      <c r="M63" s="3">
+        <v>141</v>
+      </c>
+      <c r="N63" s="3">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>43163</v>
+      </c>
+      <c r="B64" s="3">
         <v>82</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>14</v>
-      </c>
-      <c r="B6">
+      <c r="C64" s="3">
+        <v>142</v>
+      </c>
+      <c r="D64" s="3">
+        <v>82</v>
+      </c>
+      <c r="E64" s="3">
+        <v>142</v>
+      </c>
+      <c r="F64" s="3">
+        <v>82</v>
+      </c>
+      <c r="G64" s="3">
+        <v>142</v>
+      </c>
+      <c r="H64" s="3">
+        <v>82</v>
+      </c>
+      <c r="I64" s="3">
+        <v>142</v>
+      </c>
+      <c r="J64" s="3">
+        <v>82</v>
+      </c>
+      <c r="K64" s="3">
+        <v>142</v>
+      </c>
+      <c r="L64" s="3">
+        <v>82</v>
+      </c>
+      <c r="M64" s="3">
+        <v>142</v>
+      </c>
+      <c r="N64" s="3">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>43164</v>
+      </c>
+      <c r="B65" s="3">
         <v>83</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>15</v>
-      </c>
-      <c r="B7">
+      <c r="C65" s="3">
+        <v>143</v>
+      </c>
+      <c r="D65" s="3">
+        <v>83</v>
+      </c>
+      <c r="E65" s="3">
+        <v>143</v>
+      </c>
+      <c r="F65" s="3">
+        <v>83</v>
+      </c>
+      <c r="G65" s="3">
+        <v>143</v>
+      </c>
+      <c r="H65" s="3">
+        <v>83</v>
+      </c>
+      <c r="I65" s="3">
+        <v>143</v>
+      </c>
+      <c r="J65" s="3">
+        <v>83</v>
+      </c>
+      <c r="K65" s="3">
+        <v>143</v>
+      </c>
+      <c r="L65" s="3">
+        <v>83</v>
+      </c>
+      <c r="M65" s="3">
+        <v>143</v>
+      </c>
+      <c r="N65" s="3">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>43165</v>
+      </c>
+      <c r="B66" s="3">
         <v>84</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>16</v>
-      </c>
-      <c r="B8">
+      <c r="C66" s="3">
+        <v>144</v>
+      </c>
+      <c r="D66" s="3">
+        <v>84</v>
+      </c>
+      <c r="E66" s="3">
+        <v>144</v>
+      </c>
+      <c r="F66" s="3">
+        <v>84</v>
+      </c>
+      <c r="G66" s="3">
+        <v>144</v>
+      </c>
+      <c r="H66" s="3">
+        <v>84</v>
+      </c>
+      <c r="I66" s="3">
+        <v>144</v>
+      </c>
+      <c r="J66" s="3">
+        <v>84</v>
+      </c>
+      <c r="K66" s="3">
+        <v>144</v>
+      </c>
+      <c r="L66" s="3">
+        <v>84</v>
+      </c>
+      <c r="M66" s="3">
+        <v>144</v>
+      </c>
+      <c r="N66" s="4">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>43166</v>
+      </c>
+      <c r="B67" s="3">
         <v>85</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>17</v>
-      </c>
-      <c r="B9">
+      <c r="C67" s="3">
+        <v>145</v>
+      </c>
+      <c r="D67" s="3">
+        <v>85</v>
+      </c>
+      <c r="E67" s="3">
+        <v>145</v>
+      </c>
+      <c r="F67" s="3">
+        <v>85</v>
+      </c>
+      <c r="G67" s="3">
+        <v>145</v>
+      </c>
+      <c r="H67" s="3">
+        <v>85</v>
+      </c>
+      <c r="I67" s="3">
+        <v>145</v>
+      </c>
+      <c r="J67" s="3">
+        <v>85</v>
+      </c>
+      <c r="K67" s="3">
+        <v>145</v>
+      </c>
+      <c r="L67" s="3">
+        <v>85</v>
+      </c>
+      <c r="M67" s="3">
+        <v>145</v>
+      </c>
+      <c r="N67" s="4">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>43167</v>
+      </c>
+      <c r="B68" s="3">
         <v>86</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>87</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="C68" s="3">
+        <v>146</v>
+      </c>
+      <c r="D68" s="3">
+        <v>86</v>
+      </c>
+      <c r="E68" s="3">
+        <v>146</v>
+      </c>
+      <c r="F68" s="3">
+        <v>86</v>
+      </c>
+      <c r="G68" s="3">
+        <v>146</v>
+      </c>
+      <c r="H68" s="3">
+        <v>86</v>
+      </c>
+      <c r="I68" s="3">
+        <v>146</v>
+      </c>
+      <c r="J68" s="3">
+        <v>86</v>
+      </c>
+      <c r="K68" s="3">
+        <v>146</v>
+      </c>
+      <c r="L68" s="3">
+        <v>86</v>
+      </c>
+      <c r="M68" s="3">
+        <v>146</v>
+      </c>
+      <c r="N68" s="4">
+        <v>21.9</v>
       </c>
     </row>
   </sheetData>

--- a/Temp.xlsx
+++ b/Temp.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Date</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t xml:space="preserve">Humidity </t>
+  </si>
+  <si>
+    <t>Output</t>
   </si>
 </sst>
 </file>
@@ -379,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D35" sqref="D35:D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,7 +395,7 @@
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,8 +405,11 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43102</v>
       </c>
@@ -413,8 +419,11 @@
       <c r="C2" s="3">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43103</v>
       </c>
@@ -424,8 +433,11 @@
       <c r="C3" s="3">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43104</v>
       </c>
@@ -435,8 +447,11 @@
       <c r="C4" s="3">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43105</v>
       </c>
@@ -446,8 +461,11 @@
       <c r="C5" s="3">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43106</v>
       </c>
@@ -457,8 +475,11 @@
       <c r="C6" s="3">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43107</v>
       </c>
@@ -468,8 +489,11 @@
       <c r="C7" s="3">
         <v>86</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43108</v>
       </c>
@@ -479,8 +503,11 @@
       <c r="C8" s="3">
         <v>87</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43109</v>
       </c>
@@ -490,8 +517,11 @@
       <c r="C9" s="3">
         <v>88</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43110</v>
       </c>
@@ -501,8 +531,11 @@
       <c r="C10" s="3">
         <v>89</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>43111</v>
       </c>
@@ -512,8 +545,11 @@
       <c r="C11" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>43112</v>
       </c>
@@ -523,8 +559,11 @@
       <c r="C12" s="3">
         <v>91</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43113</v>
       </c>
@@ -534,8 +573,11 @@
       <c r="C13" s="3">
         <v>92</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>43114</v>
       </c>
@@ -545,8 +587,11 @@
       <c r="C14" s="3">
         <v>93</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>43115</v>
       </c>
@@ -556,8 +601,11 @@
       <c r="C15" s="3">
         <v>94</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>43116</v>
       </c>
@@ -567,8 +615,11 @@
       <c r="C16" s="3">
         <v>95</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>43117</v>
       </c>
@@ -578,8 +629,11 @@
       <c r="C17" s="3">
         <v>96</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>43118</v>
       </c>
@@ -589,8 +643,11 @@
       <c r="C18" s="3">
         <v>97</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>43119</v>
       </c>
@@ -600,8 +657,11 @@
       <c r="C19" s="3">
         <v>98</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>43120</v>
       </c>
@@ -611,8 +671,11 @@
       <c r="C20" s="3">
         <v>99</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>43121</v>
       </c>
@@ -622,8 +685,11 @@
       <c r="C21" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>43122</v>
       </c>
@@ -633,8 +699,11 @@
       <c r="C22" s="3">
         <v>101</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>43123</v>
       </c>
@@ -644,8 +713,11 @@
       <c r="C23" s="3">
         <v>102</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>43124</v>
       </c>
@@ -655,8 +727,11 @@
       <c r="C24" s="3">
         <v>103</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>43125</v>
       </c>
@@ -666,8 +741,11 @@
       <c r="C25" s="3">
         <v>104</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>43126</v>
       </c>
@@ -677,8 +755,11 @@
       <c r="C26" s="3">
         <v>105</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>43127</v>
       </c>
@@ -688,8 +769,11 @@
       <c r="C27" s="3">
         <v>106</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>43128</v>
       </c>
@@ -699,8 +783,11 @@
       <c r="C28" s="3">
         <v>107</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>43129</v>
       </c>
@@ -710,8 +797,11 @@
       <c r="C29" s="3">
         <v>108</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>43130</v>
       </c>
@@ -721,8 +811,11 @@
       <c r="C30" s="3">
         <v>109</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>43131</v>
       </c>
@@ -732,8 +825,11 @@
       <c r="C31" s="3">
         <v>110</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>43132</v>
       </c>
@@ -743,8 +839,11 @@
       <c r="C32" s="3">
         <v>111</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>43133</v>
       </c>
@@ -754,8 +853,11 @@
       <c r="C33" s="3">
         <v>112</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>43134</v>
       </c>
@@ -765,8 +867,11 @@
       <c r="C34" s="3">
         <v>113</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>43135</v>
       </c>
@@ -776,8 +881,11 @@
       <c r="C35" s="3">
         <v>114</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>43136</v>
       </c>
@@ -787,8 +895,11 @@
       <c r="C36" s="3">
         <v>115</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>43137</v>
       </c>
@@ -798,8 +909,11 @@
       <c r="C37" s="3">
         <v>116</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>43138</v>
       </c>
@@ -809,8 +923,11 @@
       <c r="C38" s="3">
         <v>117</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>43139</v>
       </c>
@@ -820,8 +937,11 @@
       <c r="C39" s="3">
         <v>118</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>43140</v>
       </c>
@@ -831,8 +951,11 @@
       <c r="C40" s="3">
         <v>119</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>43141</v>
       </c>
@@ -842,8 +965,11 @@
       <c r="C41" s="3">
         <v>120</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>43142</v>
       </c>
@@ -853,8 +979,11 @@
       <c r="C42" s="3">
         <v>121</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>43143</v>
       </c>
@@ -864,8 +993,11 @@
       <c r="C43" s="3">
         <v>122</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43144</v>
       </c>
@@ -875,8 +1007,11 @@
       <c r="C44" s="3">
         <v>123</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43145</v>
       </c>
@@ -886,8 +1021,11 @@
       <c r="C45" s="3">
         <v>124</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>43146</v>
       </c>
@@ -897,8 +1035,11 @@
       <c r="C46" s="3">
         <v>125</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>43147</v>
       </c>
@@ -908,8 +1049,11 @@
       <c r="C47" s="3">
         <v>126</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>43148</v>
       </c>
@@ -919,8 +1063,11 @@
       <c r="C48" s="3">
         <v>127</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>43149</v>
       </c>
@@ -930,8 +1077,11 @@
       <c r="C49" s="3">
         <v>128</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>43150</v>
       </c>
@@ -941,8 +1091,11 @@
       <c r="C50" s="3">
         <v>129</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>43151</v>
       </c>
@@ -952,8 +1105,11 @@
       <c r="C51" s="3">
         <v>130</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>43152</v>
       </c>
@@ -963,8 +1119,11 @@
       <c r="C52" s="3">
         <v>131</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>43153</v>
       </c>
@@ -974,8 +1133,11 @@
       <c r="C53" s="3">
         <v>132</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>43154</v>
       </c>
@@ -985,8 +1147,11 @@
       <c r="C54" s="3">
         <v>133</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>43155</v>
       </c>
@@ -996,8 +1161,11 @@
       <c r="C55" s="3">
         <v>134</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>43156</v>
       </c>
@@ -1007,8 +1175,11 @@
       <c r="C56" s="3">
         <v>135</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>43157</v>
       </c>
@@ -1018,8 +1189,11 @@
       <c r="C57" s="3">
         <v>136</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>43158</v>
       </c>
@@ -1029,8 +1203,11 @@
       <c r="C58" s="3">
         <v>137</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>43159</v>
       </c>
@@ -1040,8 +1217,11 @@
       <c r="C59" s="3">
         <v>138</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>43160</v>
       </c>
@@ -1051,8 +1231,11 @@
       <c r="C60" s="3">
         <v>139</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>43161</v>
       </c>
@@ -1062,8 +1245,11 @@
       <c r="C61" s="3">
         <v>140</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>43162</v>
       </c>
@@ -1073,8 +1259,11 @@
       <c r="C62" s="3">
         <v>141</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>43163</v>
       </c>
@@ -1084,8 +1273,11 @@
       <c r="C63" s="3">
         <v>142</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>43164</v>
       </c>
@@ -1095,8 +1287,11 @@
       <c r="C64" s="3">
         <v>143</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>43165</v>
       </c>
@@ -1106,8 +1301,11 @@
       <c r="C65" s="3">
         <v>144</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>43166</v>
       </c>
@@ -1117,8 +1315,11 @@
       <c r="C66" s="3">
         <v>145</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>43167</v>
       </c>
@@ -1127,6 +1328,9 @@
       </c>
       <c r="C67" s="3">
         <v>146</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Temp.xlsx
+++ b/Temp.xlsx
@@ -32,10 +32,10 @@
     <t>Temparature</t>
   </si>
   <si>
-    <t xml:space="preserve">Humidity </t>
+    <t>Output</t>
   </si>
   <si>
-    <t>Output</t>
+    <t>Humidity</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
   <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:D67"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,10 +403,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">

--- a/Temp.xlsx
+++ b/Temp.xlsx
@@ -65,7 +65,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -88,11 +88,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -102,6 +113,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -417,7 +429,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="3">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -431,10 +443,10 @@
         <v>22</v>
       </c>
       <c r="C3" s="3">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -445,7 +457,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="3">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -459,7 +471,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="3">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -473,7 +485,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="3">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -487,7 +499,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="3">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -501,7 +513,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="3">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -515,7 +527,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="3">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -529,7 +541,7 @@
         <v>29</v>
       </c>
       <c r="C10" s="3">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -543,7 +555,7 @@
         <v>30</v>
       </c>
       <c r="C11" s="3">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -557,7 +569,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="3">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -571,7 +583,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="3">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -585,7 +597,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="3">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -599,7 +611,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="3">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -613,7 +625,7 @@
         <v>35</v>
       </c>
       <c r="C16" s="3">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -627,7 +639,7 @@
         <v>36</v>
       </c>
       <c r="C17" s="3">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -641,7 +653,7 @@
         <v>37</v>
       </c>
       <c r="C18" s="3">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -655,7 +667,7 @@
         <v>38</v>
       </c>
       <c r="C19" s="3">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -669,7 +681,7 @@
         <v>39</v>
       </c>
       <c r="C20" s="3">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -683,7 +695,7 @@
         <v>40</v>
       </c>
       <c r="C21" s="3">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -697,10 +709,10 @@
         <v>41</v>
       </c>
       <c r="C22" s="3">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -711,10 +723,10 @@
         <v>42</v>
       </c>
       <c r="C23" s="3">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -725,10 +737,10 @@
         <v>43</v>
       </c>
       <c r="C24" s="3">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -739,7 +751,7 @@
         <v>44</v>
       </c>
       <c r="C25" s="3">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -753,7 +765,7 @@
         <v>45</v>
       </c>
       <c r="C26" s="3">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -767,7 +779,7 @@
         <v>46</v>
       </c>
       <c r="C27" s="3">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -781,7 +793,7 @@
         <v>47</v>
       </c>
       <c r="C28" s="3">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -795,7 +807,7 @@
         <v>48</v>
       </c>
       <c r="C29" s="3">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -809,7 +821,7 @@
         <v>49</v>
       </c>
       <c r="C30" s="3">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -823,7 +835,7 @@
         <v>50</v>
       </c>
       <c r="C31" s="3">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -837,7 +849,7 @@
         <v>51</v>
       </c>
       <c r="C32" s="3">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -851,7 +863,7 @@
         <v>52</v>
       </c>
       <c r="C33" s="3">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -865,7 +877,7 @@
         <v>53</v>
       </c>
       <c r="C34" s="3">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -879,7 +891,7 @@
         <v>54</v>
       </c>
       <c r="C35" s="3">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -893,7 +905,7 @@
         <v>55</v>
       </c>
       <c r="C36" s="3">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -907,7 +919,7 @@
         <v>56</v>
       </c>
       <c r="C37" s="3">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -921,7 +933,7 @@
         <v>57</v>
       </c>
       <c r="C38" s="3">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -935,7 +947,7 @@
         <v>58</v>
       </c>
       <c r="C39" s="3">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -949,7 +961,7 @@
         <v>59</v>
       </c>
       <c r="C40" s="3">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -963,7 +975,7 @@
         <v>60</v>
       </c>
       <c r="C41" s="3">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -977,7 +989,7 @@
         <v>61</v>
       </c>
       <c r="C42" s="3">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -991,7 +1003,7 @@
         <v>62</v>
       </c>
       <c r="C43" s="3">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1005,7 +1017,7 @@
         <v>63</v>
       </c>
       <c r="C44" s="3">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1019,7 +1031,7 @@
         <v>64</v>
       </c>
       <c r="C45" s="3">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1033,7 +1045,7 @@
         <v>65</v>
       </c>
       <c r="C46" s="3">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1047,7 +1059,7 @@
         <v>66</v>
       </c>
       <c r="C47" s="3">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1061,7 +1073,7 @@
         <v>67</v>
       </c>
       <c r="C48" s="3">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1075,7 +1087,7 @@
         <v>68</v>
       </c>
       <c r="C49" s="3">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1089,7 +1101,7 @@
         <v>69</v>
       </c>
       <c r="C50" s="3">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1103,7 +1115,7 @@
         <v>70</v>
       </c>
       <c r="C51" s="3">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1117,7 +1129,7 @@
         <v>71</v>
       </c>
       <c r="C52" s="3">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1131,7 +1143,7 @@
         <v>72</v>
       </c>
       <c r="C53" s="3">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1145,7 +1157,7 @@
         <v>73</v>
       </c>
       <c r="C54" s="3">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1159,7 +1171,7 @@
         <v>74</v>
       </c>
       <c r="C55" s="3">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1173,7 +1185,7 @@
         <v>75</v>
       </c>
       <c r="C56" s="3">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1187,7 +1199,7 @@
         <v>76</v>
       </c>
       <c r="C57" s="3">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1201,7 +1213,7 @@
         <v>77</v>
       </c>
       <c r="C58" s="3">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1215,7 +1227,7 @@
         <v>78</v>
       </c>
       <c r="C59" s="3">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1229,7 +1241,7 @@
         <v>79</v>
       </c>
       <c r="C60" s="3">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -1243,7 +1255,7 @@
         <v>80</v>
       </c>
       <c r="C61" s="3">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1257,7 +1269,7 @@
         <v>81</v>
       </c>
       <c r="C62" s="3">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1271,7 +1283,7 @@
         <v>82</v>
       </c>
       <c r="C63" s="3">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -1285,7 +1297,7 @@
         <v>83</v>
       </c>
       <c r="C64" s="3">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -1299,7 +1311,7 @@
         <v>84</v>
       </c>
       <c r="C65" s="3">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -1313,7 +1325,7 @@
         <v>85</v>
       </c>
       <c r="C66" s="3">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -1327,9 +1339,751 @@
         <v>86</v>
       </c>
       <c r="C67" s="3">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>43168</v>
+      </c>
+      <c r="B68" s="5">
+        <v>40</v>
+      </c>
+      <c r="C68" s="5">
+        <v>60</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>43169</v>
+      </c>
+      <c r="B69" s="5">
+        <v>41</v>
+      </c>
+      <c r="C69" s="5">
+        <v>61</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>43170</v>
+      </c>
+      <c r="B70" s="5">
+        <v>42</v>
+      </c>
+      <c r="C70" s="5">
+        <v>62</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>43171</v>
+      </c>
+      <c r="B71" s="5">
+        <v>43</v>
+      </c>
+      <c r="C71" s="5">
+        <v>63</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>43172</v>
+      </c>
+      <c r="B72" s="5">
+        <v>44</v>
+      </c>
+      <c r="C72" s="5">
+        <v>64</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>43173</v>
+      </c>
+      <c r="B73" s="5">
+        <v>45</v>
+      </c>
+      <c r="C73" s="5">
+        <v>65</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>43174</v>
+      </c>
+      <c r="B74" s="5">
+        <v>46</v>
+      </c>
+      <c r="C74" s="5">
+        <v>66</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>43175</v>
+      </c>
+      <c r="B75" s="5">
+        <v>47</v>
+      </c>
+      <c r="C75" s="5">
+        <v>67</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>43176</v>
+      </c>
+      <c r="B76" s="5">
+        <v>48</v>
+      </c>
+      <c r="C76" s="5">
+        <v>68</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>43177</v>
+      </c>
+      <c r="B77" s="5">
+        <v>49</v>
+      </c>
+      <c r="C77" s="5">
+        <v>69</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>43178</v>
+      </c>
+      <c r="B78" s="5">
+        <v>50</v>
+      </c>
+      <c r="C78" s="5">
+        <v>70</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>43179</v>
+      </c>
+      <c r="B79" s="5">
+        <v>51</v>
+      </c>
+      <c r="C79" s="5">
+        <v>71</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>43180</v>
+      </c>
+      <c r="B80" s="5">
+        <v>52</v>
+      </c>
+      <c r="C80" s="5">
+        <v>72</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>43181</v>
+      </c>
+      <c r="B81" s="5">
+        <v>53</v>
+      </c>
+      <c r="C81" s="5">
+        <v>73</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>43182</v>
+      </c>
+      <c r="B82" s="5">
+        <v>54</v>
+      </c>
+      <c r="C82" s="5">
+        <v>74</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>43183</v>
+      </c>
+      <c r="B83" s="5">
+        <v>55</v>
+      </c>
+      <c r="C83" s="5">
+        <v>75</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>43184</v>
+      </c>
+      <c r="B84" s="5">
+        <v>56</v>
+      </c>
+      <c r="C84" s="5">
+        <v>76</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>43185</v>
+      </c>
+      <c r="B85" s="5">
+        <v>57</v>
+      </c>
+      <c r="C85" s="5">
+        <v>77</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>43186</v>
+      </c>
+      <c r="B86" s="5">
+        <v>58</v>
+      </c>
+      <c r="C86" s="5">
+        <v>78</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>43187</v>
+      </c>
+      <c r="B87" s="5">
+        <v>59</v>
+      </c>
+      <c r="C87" s="5">
+        <v>79</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>43188</v>
+      </c>
+      <c r="B88" s="5">
+        <v>60</v>
+      </c>
+      <c r="C88" s="5">
+        <v>80</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>43189</v>
+      </c>
+      <c r="B89" s="5">
+        <v>61</v>
+      </c>
+      <c r="C89" s="5">
+        <v>81</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>43190</v>
+      </c>
+      <c r="B90" s="5">
+        <v>62</v>
+      </c>
+      <c r="C90" s="5">
+        <v>82</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>43191</v>
+      </c>
+      <c r="B91" s="5">
+        <v>63</v>
+      </c>
+      <c r="C91" s="5">
+        <v>83</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>43192</v>
+      </c>
+      <c r="B92" s="5">
+        <v>64</v>
+      </c>
+      <c r="C92" s="5">
+        <v>84</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>43193</v>
+      </c>
+      <c r="B93" s="5">
+        <v>65</v>
+      </c>
+      <c r="C93" s="5">
+        <v>85</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>43194</v>
+      </c>
+      <c r="B94" s="5">
+        <v>66</v>
+      </c>
+      <c r="C94" s="5">
+        <v>86</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>43195</v>
+      </c>
+      <c r="B95" s="5">
+        <v>67</v>
+      </c>
+      <c r="C95" s="5">
+        <v>87</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>43196</v>
+      </c>
+      <c r="B96" s="5">
+        <v>68</v>
+      </c>
+      <c r="C96" s="5">
+        <v>88</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>43197</v>
+      </c>
+      <c r="B97" s="5">
+        <v>69</v>
+      </c>
+      <c r="C97" s="5">
+        <v>89</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>43198</v>
+      </c>
+      <c r="B98" s="5">
+        <v>70</v>
+      </c>
+      <c r="C98" s="5">
+        <v>90</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>43199</v>
+      </c>
+      <c r="B99" s="5">
+        <v>71</v>
+      </c>
+      <c r="C99" s="5">
+        <v>91</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>43200</v>
+      </c>
+      <c r="B100" s="5">
+        <v>72</v>
+      </c>
+      <c r="C100" s="5">
+        <v>92</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>43201</v>
+      </c>
+      <c r="B101" s="5">
+        <v>73</v>
+      </c>
+      <c r="C101" s="5">
+        <v>93</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>43202</v>
+      </c>
+      <c r="B102" s="5">
+        <v>74</v>
+      </c>
+      <c r="C102" s="5">
+        <v>94</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>43203</v>
+      </c>
+      <c r="B103" s="5">
+        <v>75</v>
+      </c>
+      <c r="C103" s="5">
+        <v>95</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>43204</v>
+      </c>
+      <c r="B104" s="5">
+        <v>76</v>
+      </c>
+      <c r="C104" s="5">
+        <v>96</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>43205</v>
+      </c>
+      <c r="B105" s="5">
+        <v>77</v>
+      </c>
+      <c r="C105" s="5">
+        <v>97</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>43206</v>
+      </c>
+      <c r="B106" s="5">
+        <v>78</v>
+      </c>
+      <c r="C106" s="5">
+        <v>98</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>43207</v>
+      </c>
+      <c r="B107" s="5">
+        <v>79</v>
+      </c>
+      <c r="C107" s="5">
+        <v>99</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>43208</v>
+      </c>
+      <c r="B108" s="5">
+        <v>80</v>
+      </c>
+      <c r="C108" s="5">
+        <v>100</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>43209</v>
+      </c>
+      <c r="B109" s="5">
+        <v>81</v>
+      </c>
+      <c r="C109" s="5">
+        <v>101</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>43210</v>
+      </c>
+      <c r="B110" s="5">
+        <v>82</v>
+      </c>
+      <c r="C110" s="5">
+        <v>102</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>43211</v>
+      </c>
+      <c r="B111" s="5">
+        <v>83</v>
+      </c>
+      <c r="C111" s="5">
+        <v>103</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>43212</v>
+      </c>
+      <c r="B112" s="5">
+        <v>84</v>
+      </c>
+      <c r="C112" s="5">
+        <v>104</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>43213</v>
+      </c>
+      <c r="B113" s="5">
+        <v>85</v>
+      </c>
+      <c r="C113" s="5">
+        <v>105</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>43214</v>
+      </c>
+      <c r="B114" s="5">
+        <v>86</v>
+      </c>
+      <c r="C114" s="5">
+        <v>106</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>43215</v>
+      </c>
+      <c r="B115" s="5">
+        <v>87</v>
+      </c>
+      <c r="C115" s="5">
+        <v>107</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>43216</v>
+      </c>
+      <c r="B116" s="5">
+        <v>88</v>
+      </c>
+      <c r="C116" s="5">
+        <v>108</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>43217</v>
+      </c>
+      <c r="B117" s="5">
+        <v>89</v>
+      </c>
+      <c r="C117" s="5">
+        <v>109</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>43218</v>
+      </c>
+      <c r="B118" s="5">
+        <v>90</v>
+      </c>
+      <c r="C118" s="5">
+        <v>110</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <v>43219</v>
+      </c>
+      <c r="B119" s="5">
+        <v>91</v>
+      </c>
+      <c r="C119" s="5">
+        <v>111</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>43220</v>
+      </c>
+      <c r="B120" s="5">
+        <v>92</v>
+      </c>
+      <c r="C120" s="5">
+        <v>112</v>
+      </c>
+      <c r="D120">
         <v>0</v>
       </c>
     </row>

--- a/Temp.xlsx
+++ b/Temp.xlsx
@@ -383,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,10 +415,10 @@
         <v>43102</v>
       </c>
       <c r="B2" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -429,10 +429,10 @@
         <v>43103</v>
       </c>
       <c r="B3" s="3">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -443,10 +443,10 @@
         <v>43104</v>
       </c>
       <c r="B4" s="3">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -457,10 +457,10 @@
         <v>43105</v>
       </c>
       <c r="B5" s="3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
@@ -471,10 +471,10 @@
         <v>43106</v>
       </c>
       <c r="B6" s="3">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -485,10 +485,10 @@
         <v>43107</v>
       </c>
       <c r="B7" s="3">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -499,10 +499,10 @@
         <v>43108</v>
       </c>
       <c r="B8" s="3">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
@@ -513,10 +513,10 @@
         <v>43109</v>
       </c>
       <c r="B9" s="3">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
@@ -527,13 +527,13 @@
         <v>43110</v>
       </c>
       <c r="B10" s="3">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -541,13 +541,13 @@
         <v>43111</v>
       </c>
       <c r="B11" s="3">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -555,10 +555,10 @@
         <v>43112</v>
       </c>
       <c r="B12" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D12" s="5">
         <v>0</v>
@@ -569,13 +569,13 @@
         <v>43113</v>
       </c>
       <c r="B13" s="3">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -583,13 +583,13 @@
         <v>43114</v>
       </c>
       <c r="B14" s="3">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D14" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -597,13 +597,13 @@
         <v>43115</v>
       </c>
       <c r="B15" s="3">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C15" s="3">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D15" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -611,13 +611,13 @@
         <v>43116</v>
       </c>
       <c r="B16" s="3">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C16" s="3">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -625,13 +625,13 @@
         <v>43117</v>
       </c>
       <c r="B17" s="3">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C17" s="3">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -639,10 +639,10 @@
         <v>43118</v>
       </c>
       <c r="B18" s="3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C18" s="3">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -653,10 +653,10 @@
         <v>43119</v>
       </c>
       <c r="B19" s="3">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C19" s="3">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D19" s="5">
         <v>1</v>
@@ -667,13 +667,13 @@
         <v>43120</v>
       </c>
       <c r="B20" s="3">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C20" s="3">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D20" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -681,13 +681,13 @@
         <v>43121</v>
       </c>
       <c r="B21" s="3">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C21" s="3">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D21" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -695,13 +695,13 @@
         <v>43122</v>
       </c>
       <c r="B22" s="3">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C22" s="3">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D22" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -709,13 +709,13 @@
         <v>43123</v>
       </c>
       <c r="B23" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C23" s="3">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D23" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -723,13 +723,13 @@
         <v>43124</v>
       </c>
       <c r="B24" s="3">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C24" s="3">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D24" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -737,13 +737,13 @@
         <v>43125</v>
       </c>
       <c r="B25" s="3">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C25" s="3">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D25" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -751,13 +751,13 @@
         <v>43126</v>
       </c>
       <c r="B26" s="3">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C26" s="3">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -765,13 +765,13 @@
         <v>43127</v>
       </c>
       <c r="B27" s="3">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C27" s="3">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D27" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -779,13 +779,13 @@
         <v>43128</v>
       </c>
       <c r="B28" s="3">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C28" s="3">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -793,10 +793,10 @@
         <v>43129</v>
       </c>
       <c r="B29" s="3">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C29" s="3">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D29" s="5">
         <v>0</v>
@@ -807,10 +807,10 @@
         <v>43130</v>
       </c>
       <c r="B30" s="3">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C30" s="3">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D30" s="5">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>43131</v>
       </c>
       <c r="B31" s="3">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C31" s="3">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D31" s="5">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>43132</v>
       </c>
       <c r="B32" s="3">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C32" s="3">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D32" s="5">
         <v>0</v>
@@ -849,10 +849,10 @@
         <v>43133</v>
       </c>
       <c r="B33" s="3">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C33" s="3">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D33" s="5">
         <v>0</v>
@@ -866,10 +866,10 @@
         <v>30</v>
       </c>
       <c r="C34" s="3">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D34" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -877,13 +877,13 @@
         <v>43135</v>
       </c>
       <c r="B35" s="3">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C35" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D35" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -891,13 +891,13 @@
         <v>43136</v>
       </c>
       <c r="B36" s="3">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C36" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -905,13 +905,13 @@
         <v>43137</v>
       </c>
       <c r="B37" s="3">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C37" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D37" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -919,13 +919,13 @@
         <v>43138</v>
       </c>
       <c r="B38" s="3">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C38" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D38" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -933,13 +933,13 @@
         <v>43139</v>
       </c>
       <c r="B39" s="3">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C39" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D39" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -947,10 +947,10 @@
         <v>43140</v>
       </c>
       <c r="B40" s="3">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C40" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D40" s="5">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>43141</v>
       </c>
       <c r="B41" s="3">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C41" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D41" s="5">
         <v>0</v>
@@ -975,10 +975,10 @@
         <v>43142</v>
       </c>
       <c r="B42" s="3">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C42" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D42" s="5">
         <v>0</v>
@@ -989,10 +989,10 @@
         <v>43143</v>
       </c>
       <c r="B43" s="3">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C43" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D43" s="5">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         <v>43144</v>
       </c>
       <c r="B44" s="3">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C44" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D44" s="5">
         <v>0</v>
@@ -1017,68 +1017,12 @@
         <v>43145</v>
       </c>
       <c r="B45" s="3">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C45" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D45" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>43146</v>
-      </c>
-      <c r="B46" s="3">
-        <v>42</v>
-      </c>
-      <c r="C46" s="3">
-        <v>80</v>
-      </c>
-      <c r="D46" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>43147</v>
-      </c>
-      <c r="B47" s="3">
-        <v>43</v>
-      </c>
-      <c r="C47" s="3">
-        <v>80</v>
-      </c>
-      <c r="D47" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>43148</v>
-      </c>
-      <c r="B48" s="3">
-        <v>44</v>
-      </c>
-      <c r="C48" s="3">
-        <v>80</v>
-      </c>
-      <c r="D48" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>43149</v>
-      </c>
-      <c r="B49" s="3">
-        <v>45</v>
-      </c>
-      <c r="C49" s="3">
-        <v>80</v>
-      </c>
-      <c r="D49" s="5">
         <v>0</v>
       </c>
     </row>
